--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll3-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll3-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dll3</t>
+  </si>
+  <si>
+    <t>Notch4</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll3</t>
-  </si>
-  <si>
-    <t>Notch4</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H2">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I2">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J2">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N2">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O2">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P2">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q2">
-        <v>62.71462214438202</v>
+        <v>10.578746392406</v>
       </c>
       <c r="R2">
-        <v>250.8584885775281</v>
+        <v>42.314985569624</v>
       </c>
       <c r="S2">
-        <v>0.1907886003214045</v>
+        <v>0.1355647947543674</v>
       </c>
       <c r="T2">
-        <v>0.1222059279497961</v>
+        <v>0.1019256748470525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H3">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I3">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J3">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.230285</v>
       </c>
       <c r="O3">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P3">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q3">
-        <v>1.956878007611667</v>
+        <v>0.3455719036633333</v>
       </c>
       <c r="R3">
-        <v>11.74126804567</v>
+        <v>2.07343142198</v>
       </c>
       <c r="S3">
-        <v>0.005953157386684718</v>
+        <v>0.004428443830227883</v>
       </c>
       <c r="T3">
-        <v>0.005719768802581099</v>
+        <v>0.00499435115218623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H4">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I4">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J4">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N4">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O4">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P4">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q4">
-        <v>1.124185359653</v>
+        <v>0.02951558424066666</v>
       </c>
       <c r="R4">
-        <v>6.745112157918</v>
+        <v>0.177093505444</v>
       </c>
       <c r="S4">
-        <v>0.003419964020132806</v>
+        <v>0.0003782370775533055</v>
       </c>
       <c r="T4">
-        <v>0.00328588717510778</v>
+        <v>0.0004265716934656694</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H5">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I5">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J5">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N5">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O5">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P5">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q5">
-        <v>1.265108816565</v>
+        <v>0.344466299007</v>
       </c>
       <c r="R5">
-        <v>5.06043526626</v>
+        <v>1.377865196028</v>
       </c>
       <c r="S5">
-        <v>0.003848677263988374</v>
+        <v>0.004414275698886451</v>
       </c>
       <c r="T5">
-        <v>0.002465195381865881</v>
+        <v>0.003318914991057816</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H6">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I6">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J6">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N6">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O6">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P6">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q6">
-        <v>39.057299975291</v>
+        <v>0.17667606676</v>
       </c>
       <c r="R6">
-        <v>234.343799851746</v>
+        <v>1.06005640056</v>
       </c>
       <c r="S6">
-        <v>0.1188189825566305</v>
+        <v>0.002264073061201438</v>
       </c>
       <c r="T6">
-        <v>0.1141607831672527</v>
+        <v>0.002553397160569457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H7">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I7">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J7">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N7">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O7">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P7">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q7">
-        <v>1.532555314802667</v>
+        <v>0.105690083368</v>
       </c>
       <c r="R7">
-        <v>9.195331888816003</v>
+        <v>0.6341405002080001</v>
       </c>
       <c r="S7">
-        <v>0.004662295226034827</v>
+        <v>0.001354400032657954</v>
       </c>
       <c r="T7">
-        <v>0.004479513819329351</v>
+        <v>0.001527477737767363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.314533</v>
       </c>
       <c r="I8">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J8">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N8">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O8">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P8">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q8">
-        <v>24.48270476947533</v>
+        <v>23.38568623045233</v>
       </c>
       <c r="R8">
-        <v>146.896228616852</v>
+        <v>140.314117382714</v>
       </c>
       <c r="S8">
-        <v>0.07448057271710447</v>
+        <v>0.2996835009011184</v>
       </c>
       <c r="T8">
-        <v>0.07156062380922718</v>
+        <v>0.3379798176055186</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.314533</v>
       </c>
       <c r="I9">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J9">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>5.230285</v>
       </c>
       <c r="O9">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P9">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q9">
         <v>0.7639313591005555</v>
@@ -1013,10 +1013,10 @@
         <v>6.875382231905</v>
       </c>
       <c r="S9">
-        <v>0.002324009772535631</v>
+        <v>0.009789647474414772</v>
       </c>
       <c r="T9">
-        <v>0.003349348353423658</v>
+        <v>0.01656098813185956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>1.314533</v>
       </c>
       <c r="I10">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J10">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N10">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O10">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P10">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q10">
-        <v>0.4388625383596665</v>
+        <v>0.06524801392877777</v>
       </c>
       <c r="R10">
-        <v>3.949762845236999</v>
+        <v>0.5872321253589999</v>
       </c>
       <c r="S10">
-        <v>0.001335094856098723</v>
+        <v>0.000836141948041644</v>
       </c>
       <c r="T10">
-        <v>0.001924130358995767</v>
+        <v>0.001414487795833056</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>1.314533</v>
       </c>
       <c r="I11">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J11">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N11">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O11">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P11">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q11">
-        <v>0.4938766207649999</v>
+        <v>0.7614872771054999</v>
       </c>
       <c r="R11">
-        <v>2.963259724589999</v>
+        <v>4.568923662633</v>
       </c>
       <c r="S11">
-        <v>0.00150245709828709</v>
+        <v>0.009758326988817309</v>
       </c>
       <c r="T11">
-        <v>0.001443554517342403</v>
+        <v>0.01100533584898192</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>1.314533</v>
       </c>
       <c r="I12">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J12">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N12">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O12">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P12">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q12">
-        <v>15.24729499583766</v>
+        <v>0.3905652814066666</v>
       </c>
       <c r="R12">
-        <v>137.225654962539</v>
+        <v>3.51508753266</v>
       </c>
       <c r="S12">
-        <v>0.04638487758478847</v>
+        <v>0.005005026139021982</v>
       </c>
       <c r="T12">
-        <v>0.06684959555607346</v>
+        <v>0.008466921684832679</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>1.314533</v>
       </c>
       <c r="I13">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J13">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N13">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O13">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P13">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q13">
-        <v>0.5982831121715556</v>
+        <v>0.2336415899986667</v>
       </c>
       <c r="R13">
-        <v>5.384548009544001</v>
+        <v>2.102774309988</v>
       </c>
       <c r="S13">
-        <v>0.001820079491260559</v>
+        <v>0.002994076331860108</v>
       </c>
       <c r="T13">
-        <v>0.002623087182848865</v>
+        <v>0.005065030454611038</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H14">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I14">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J14">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N14">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O14">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P14">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q14">
-        <v>10.69167984574733</v>
+        <v>14.81617261390933</v>
       </c>
       <c r="R14">
-        <v>64.150079074484</v>
+        <v>88.897035683456</v>
       </c>
       <c r="S14">
-        <v>0.03252591761070563</v>
+        <v>0.189866674646038</v>
       </c>
       <c r="T14">
-        <v>0.03125076606258555</v>
+        <v>0.214129586291131</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H15">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I15">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J15">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.230285</v>
       </c>
       <c r="O15">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P15">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q15">
-        <v>0.3336114041538888</v>
+        <v>0.4839943019022223</v>
       </c>
       <c r="R15">
-        <v>3.002502637385</v>
+        <v>4.35594871712</v>
       </c>
       <c r="S15">
-        <v>0.00101490291535593</v>
+        <v>0.006202302783887361</v>
       </c>
       <c r="T15">
-        <v>0.001462671735981325</v>
+        <v>0.01049233520028243</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,46 +1411,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H16">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I16">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J16">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N16">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O16">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P16">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q16">
-        <v>0.1916527524476666</v>
+        <v>0.04133835661511111</v>
       </c>
       <c r="R16">
-        <v>1.724874772028999</v>
+        <v>0.372045209536</v>
       </c>
       <c r="S16">
-        <v>0.0005830404319913528</v>
+        <v>0.00052974384885843</v>
       </c>
       <c r="T16">
-        <v>0.0008402742251548412</v>
+        <v>0.0008961590922245664</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H17">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I17">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J17">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N17">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O17">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P17">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q17">
-        <v>0.2156775880049999</v>
+        <v>0.482445835872</v>
       </c>
       <c r="R17">
-        <v>1.29406552803</v>
+        <v>2.894675015232</v>
       </c>
       <c r="S17">
-        <v>0.0006561280883019177</v>
+        <v>0.006182459461079104</v>
       </c>
       <c r="T17">
-        <v>0.0006304051323018114</v>
+        <v>0.006972511048242464</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H18">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I18">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J18">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N18">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O18">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P18">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q18">
-        <v>6.658545211573665</v>
+        <v>0.2474454916266667</v>
       </c>
       <c r="R18">
-        <v>59.92690690416299</v>
+        <v>2.22700942464</v>
       </c>
       <c r="S18">
-        <v>0.02025643267320124</v>
+        <v>0.003170970929915001</v>
       </c>
       <c r="T18">
-        <v>0.02919344411628699</v>
+        <v>0.005364280182104649</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H19">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I19">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J19">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N19">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O19">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P19">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q19">
-        <v>0.2612722553608889</v>
+        <v>0.1480253387946667</v>
       </c>
       <c r="R19">
-        <v>2.351450298248</v>
+        <v>1.332228049152</v>
       </c>
       <c r="S19">
-        <v>0.0007948348598570955</v>
+        <v>0.001896918966367309</v>
       </c>
       <c r="T19">
-        <v>0.001145511030360898</v>
+        <v>0.003208987103081186</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H20">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I20">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J20">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N20">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O20">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P20">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q20">
-        <v>14.675453235066</v>
+        <v>18.8863984897105</v>
       </c>
       <c r="R20">
-        <v>58.70181294026401</v>
+        <v>75.54559395884201</v>
       </c>
       <c r="S20">
-        <v>0.04464523720408459</v>
+        <v>0.2420259111934798</v>
       </c>
       <c r="T20">
-        <v>0.02859663854062994</v>
+        <v>0.1819694735168217</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H21">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I21">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J21">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.230285</v>
       </c>
       <c r="O21">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P21">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q21">
-        <v>0.4579166820350001</v>
+        <v>0.6169548297441667</v>
       </c>
       <c r="R21">
-        <v>2.747500092210001</v>
+        <v>3.701728978465001</v>
       </c>
       <c r="S21">
-        <v>0.001393060818068016</v>
+        <v>0.007906168818549532</v>
       </c>
       <c r="T21">
-        <v>0.001338447027304425</v>
+        <v>0.008916491856298376</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H22">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I22">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J22">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N22">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O22">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P22">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q22">
-        <v>0.263063526639</v>
+        <v>0.05269462608783334</v>
       </c>
       <c r="R22">
-        <v>1.578381159834</v>
+        <v>0.316167756527</v>
       </c>
       <c r="S22">
-        <v>0.000800284213265619</v>
+        <v>0.0006752724666301936</v>
       </c>
       <c r="T22">
-        <v>0.0007689097362809685</v>
+        <v>0.0007615649991388956</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H23">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I23">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J23">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N23">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O23">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P23">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q23">
-        <v>0.296040136095</v>
+        <v>0.6149809767622501</v>
       </c>
       <c r="R23">
-        <v>1.18416054438</v>
+        <v>2.459923907049</v>
       </c>
       <c r="S23">
-        <v>0.000900604695895194</v>
+        <v>0.007880874235955045</v>
       </c>
       <c r="T23">
-        <v>0.0005768648252170682</v>
+        <v>0.005925309932714588</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H24">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I24">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J24">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N24">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O24">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P24">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q24">
-        <v>9.139552462833</v>
+        <v>0.3154224968300001</v>
       </c>
       <c r="R24">
-        <v>54.83731477699801</v>
+        <v>1.89253498098</v>
       </c>
       <c r="S24">
-        <v>0.02780408080803779</v>
+        <v>0.004042084426408469</v>
       </c>
       <c r="T24">
-        <v>0.02671404494461434</v>
+        <v>0.004558619186828056</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H25">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I25">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J25">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N25">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O25">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P25">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q25">
-        <v>0.3586236045680001</v>
+        <v>0.188690129894</v>
       </c>
       <c r="R25">
-        <v>2.151741627408001</v>
+        <v>1.132140779364</v>
       </c>
       <c r="S25">
-        <v>0.001090994304330267</v>
+        <v>0.002418031190313587</v>
       </c>
       <c r="T25">
-        <v>0.001048222780009027</v>
+        <v>0.002727029476795568</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H26">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I26">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J26">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N26">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O26">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P26">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q26">
-        <v>58.75301207745667</v>
+        <v>3.616320122711</v>
       </c>
       <c r="R26">
-        <v>352.51807246474</v>
+        <v>21.697920736266</v>
       </c>
       <c r="S26">
-        <v>0.1787367053431043</v>
+        <v>0.0463425132824179</v>
       </c>
       <c r="T26">
-        <v>0.1717294814654565</v>
+        <v>0.05226458627010278</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H27">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I27">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J27">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>5.230285</v>
       </c>
       <c r="O27">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P27">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q27">
-        <v>1.833264289636111</v>
+        <v>0.1181329604383333</v>
       </c>
       <c r="R27">
-        <v>16.499378606725</v>
+        <v>1.063196643945</v>
       </c>
       <c r="S27">
-        <v>0.00557710332741309</v>
+        <v>0.001513853337768326</v>
       </c>
       <c r="T27">
-        <v>0.008037686444908548</v>
+        <v>0.002560961181256017</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H28">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I28">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J28">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N28">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O28">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P28">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q28">
-        <v>1.053171872118333</v>
+        <v>0.01008983458566667</v>
       </c>
       <c r="R28">
-        <v>9.478546849064998</v>
+        <v>0.09080851127100001</v>
       </c>
       <c r="S28">
-        <v>0.003203928852775997</v>
+        <v>0.0001292994750014349</v>
       </c>
       <c r="T28">
-        <v>0.0046174822302161</v>
+        <v>0.0002187338284193369</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H29">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I29">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J29">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N29">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O29">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P29">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q29">
-        <v>1.185193357425</v>
+        <v>0.1177550120295</v>
       </c>
       <c r="R29">
-        <v>7.111160144549998</v>
+        <v>0.706530072177</v>
       </c>
       <c r="S29">
-        <v>0.003605560777401539</v>
+        <v>0.001509009994656518</v>
       </c>
       <c r="T29">
-        <v>0.003464207765868627</v>
+        <v>0.001701845184087047</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H30">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I30">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J30">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N30">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O30">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P30">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q30">
-        <v>36.59009555822833</v>
+        <v>0.06039630706</v>
       </c>
       <c r="R30">
-        <v>329.3108600240549</v>
+        <v>0.54356676354</v>
       </c>
       <c r="S30">
-        <v>0.1113133250027271</v>
+        <v>0.0007739681685145762</v>
       </c>
       <c r="T30">
-        <v>0.1604240680129415</v>
+        <v>0.00130930941964008</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H31">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I31">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J31">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N31">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O31">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P31">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q31">
-        <v>1.435745570031111</v>
+        <v>0.036129911908</v>
       </c>
       <c r="R31">
-        <v>12.92171013028</v>
+        <v>0.325169207172</v>
       </c>
       <c r="S31">
-        <v>0.004367783434830611</v>
+        <v>0.000462998535990749</v>
       </c>
       <c r="T31">
-        <v>0.006294822176930732</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H32">
-        <v>1.083641</v>
-      </c>
-      <c r="I32">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J32">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>55.87392200000001</v>
-      </c>
-      <c r="N32">
-        <v>111.747844</v>
-      </c>
-      <c r="O32">
-        <v>0.5825754174893317</v>
-      </c>
-      <c r="P32">
-        <v>0.4843347495294592</v>
-      </c>
-      <c r="Q32">
-        <v>20.18242423666734</v>
-      </c>
-      <c r="R32">
-        <v>121.094545420004</v>
-      </c>
-      <c r="S32">
-        <v>0.06139838429292822</v>
-      </c>
-      <c r="T32">
-        <v>0.05899131170176386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H33">
-        <v>1.083641</v>
-      </c>
-      <c r="I33">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J33">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.743428333333333</v>
-      </c>
-      <c r="N33">
-        <v>5.230285</v>
-      </c>
-      <c r="O33">
-        <v>0.01817804179120264</v>
-      </c>
-      <c r="P33">
-        <v>0.02266897225724272</v>
-      </c>
-      <c r="Q33">
-        <v>0.629750140853889</v>
-      </c>
-      <c r="R33">
-        <v>5.667751267685</v>
-      </c>
-      <c r="S33">
-        <v>0.001915807571145254</v>
-      </c>
-      <c r="T33">
-        <v>0.002761049893043664</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H34">
-        <v>1.083641</v>
-      </c>
-      <c r="I34">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J34">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1.001563</v>
-      </c>
-      <c r="N34">
-        <v>3.004688999999999</v>
-      </c>
-      <c r="O34">
-        <v>0.0104429036298341</v>
-      </c>
-      <c r="P34">
-        <v>0.01302284896189067</v>
-      </c>
-      <c r="Q34">
-        <v>0.3617782436276666</v>
-      </c>
-      <c r="R34">
-        <v>3.256004192649</v>
-      </c>
-      <c r="S34">
-        <v>0.001100591255569603</v>
-      </c>
-      <c r="T34">
-        <v>0.001586165236135214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H35">
-        <v>1.083641</v>
-      </c>
-      <c r="I35">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J35">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.127115</v>
-      </c>
-      <c r="N35">
-        <v>2.25423</v>
-      </c>
-      <c r="O35">
-        <v>0.01175198497222887</v>
-      </c>
-      <c r="P35">
-        <v>0.009770228071977768</v>
-      </c>
-      <c r="Q35">
-        <v>0.407129341905</v>
-      </c>
-      <c r="R35">
-        <v>2.44277605143</v>
-      </c>
-      <c r="S35">
-        <v>0.001238557048354754</v>
-      </c>
-      <c r="T35">
-        <v>0.001190000449381977</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H36">
-        <v>1.083641</v>
-      </c>
-      <c r="I36">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J36">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>34.797061</v>
-      </c>
-      <c r="N36">
-        <v>104.391183</v>
-      </c>
-      <c r="O36">
-        <v>0.3628152743506486</v>
-      </c>
-      <c r="P36">
-        <v>0.4524496908538918</v>
-      </c>
-      <c r="Q36">
-        <v>12.56917399303367</v>
-      </c>
-      <c r="R36">
-        <v>113.122565937303</v>
-      </c>
-      <c r="S36">
-        <v>0.03823757572526347</v>
-      </c>
-      <c r="T36">
-        <v>0.05510775505672281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H37">
-        <v>1.083641</v>
-      </c>
-      <c r="I37">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J37">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1.365389333333334</v>
-      </c>
-      <c r="N37">
-        <v>4.096168</v>
-      </c>
-      <c r="O37">
-        <v>0.014236377766754</v>
-      </c>
-      <c r="P37">
-        <v>0.01775351032553778</v>
-      </c>
-      <c r="Q37">
-        <v>0.493197287520889</v>
-      </c>
-      <c r="R37">
-        <v>4.438775587688001</v>
-      </c>
-      <c r="S37">
-        <v>0.001500390450440638</v>
-      </c>
-      <c r="T37">
-        <v>0.00216235333605891</v>
+        <v>0.0007832471270953017</v>
       </c>
     </row>
   </sheetData>
